--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -1179,7 +1179,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 16:36</t>
+          <t>Generated: 2025-11-04 16:45</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -35,6 +35,9 @@
     <definedName name="SAM_Method2">'Method_2_BottomUp'!$F$6</definedName>
     <definedName name="SAM_Method3">'Method_3_Proxy'!$B$7</definedName>
     <definedName name="SAM_Method4">'Method_4_CompetitorRevenue'!$B$7</definedName>
+    <definedName name="AvgSAM_Best">'Scenarios'!$B$22</definedName>
+    <definedName name="AvgSAM_Base">'Scenarios'!$C$22</definedName>
+    <definedName name="AvgSAM_Worst">'Scenarios'!$D$22</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -829,7 +832,7 @@
         </is>
       </c>
       <c r="B6" s="6">
-        <f>Convergence_Analysis!C16</f>
+        <f>Convergence_Analysis!B8</f>
         <v/>
       </c>
     </row>
@@ -931,7 +934,7 @@
         </is>
       </c>
       <c r="B16" s="10">
-        <f>Convergence_Analysis!C19</f>
+        <f>Convergence_Analysis!B11</f>
         <v/>
       </c>
     </row>
@@ -942,7 +945,7 @@
         </is>
       </c>
       <c r="B17" s="11">
-        <f>Convergence_Analysis!C20</f>
+        <f>Convergence_Analysis!B12</f>
         <v/>
       </c>
     </row>
@@ -994,7 +997,7 @@
         </is>
       </c>
       <c r="B23" s="12">
-        <f>Scenarios!B13</f>
+        <f>AvgSAM_Best</f>
         <v/>
       </c>
     </row>
@@ -1005,7 +1008,7 @@
         </is>
       </c>
       <c r="B24" s="13">
-        <f>Scenarios!C13</f>
+        <f>AvgSAM_Base</f>
         <v/>
       </c>
     </row>
@@ -1016,7 +1019,7 @@
         </is>
       </c>
       <c r="B25" s="14">
-        <f>Scenarios!D13</f>
+        <f>AvgSAM_Worst</f>
         <v/>
       </c>
     </row>
@@ -1179,7 +1182,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 16:45</t>
+          <t>Generated: 2025-11-04 17:06</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -1182,7 +1182,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:06</t>
+          <t>Generated: 2025-11-04 17:13</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -1182,7 +1182,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:13</t>
+          <t>Generated: 2025-11-04 17:16</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -469,18 +469,18 @@
     <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <t>출처: TAM_VALUE
-글로벌 악기 시장</t>
+글로벌 악기</t>
       </text>
     </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
-        <t>한국 비중 15%
+        <t>한국 15%
 출처: FILTER_KOREA</t>
       </text>
     </comment>
     <comment ref="C6" authorId="0" shapeId="0">
       <text>
-        <t>피아노만 25%
+        <t>피아노 25%
 출처: FILTER_PIANO</t>
       </text>
     </comment>
@@ -1182,7 +1182,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:16</t>
+          <t>Generated: 2025-11-04 17:18</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>글로벌 악기 시장</t>
+          <t>글로벌 악기</t>
         </is>
       </c>
       <c r="D2" s="20" t="n">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>한국 비중</t>
+          <t>한국</t>
         </is>
       </c>
       <c r="D3" s="20" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노 비중</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="D4" s="20" t="n">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>타겟 고객 수</t>
+          <t>타겟</t>
         </is>
       </c>
       <c r="D5" s="20" t="n">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>구독 전환율</t>
+          <t>전환율</t>
         </is>
       </c>
       <c r="D6" s="20" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>월 구독료</t>
+          <t>구독료</t>
         </is>
       </c>
       <c r="D7" s="20" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>연간 결제</t>
+          <t>빈도</t>
         </is>
       </c>
       <c r="D8" s="20" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>유사 시장 규모</t>
+          <t>유사시장</t>
         </is>
       </c>
       <c r="D9" s="20" t="n">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>상관계수</t>
+          <t>상관</t>
         </is>
       </c>
       <c r="D10" s="20" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>적용 비율</t>
+          <t>적용</t>
         </is>
       </c>
       <c r="D11" s="20" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>경쟁사A 매출</t>
+          <t>매출</t>
         </is>
       </c>
       <c r="D12" s="20" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>시장 점유율</t>
+          <t>점유율</t>
         </is>
       </c>
       <c r="D13" s="20" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>피아노 비중</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>타겟 고객 수</t>
+          <t>타겟</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>구독 전환율</t>
+          <t>전환율</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>상관계수</t>
+          <t>상관</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>적용 비율</t>
+          <t>적용</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>시장 점유율</t>
+          <t>점유율</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -2427,17 +2427,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>글로벌 악기 시장</t>
+          <t>글로벌 악기</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한국 비중 15%</t>
+          <t>한국 15%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노만 25%</t>
+          <t>피아노 25%</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>개인 구독</t>
+          <t>개인</t>
         </is>
       </c>
       <c r="B4">

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -871,7 +871,7 @@
         <v/>
       </c>
       <c r="C10" s="9">
-        <f>B10/B7*100</f>
+        <f>B10/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v/>
       </c>
       <c r="C11" s="9">
-        <f>B11/B7*100</f>
+        <f>B11/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -901,7 +901,7 @@
         <v/>
       </c>
       <c r="C12" s="9">
-        <f>B12/B7*100</f>
+        <f>B12/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v/>
       </c>
       <c r="C13" s="9">
-        <f>B13/B7*100</f>
+        <f>B13/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B18" s="8">
-        <f>Convergence_Analysis!C17</f>
+        <f>Convergence_Analysis!B9</f>
         <v/>
       </c>
     </row>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B19" s="9">
-        <f>Convergence_Analysis!C18</f>
+        <f>Convergence_Analysis!B10</f>
         <v/>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B29" s="11">
-        <f>Validation_Log!B19</f>
+        <f>Validation_Log!B15</f>
         <v/>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="B30" s="15">
-        <f>Validation_Log!B20</f>
+        <f>Validation_Log!B16</f>
         <v/>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B31" s="16">
-        <f>Validation_Log!B21</f>
+        <f>Validation_Log!B17</f>
         <v/>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B32" s="11">
-        <f>Validation_Log!B22</f>
+        <f>Validation_Log!B18</f>
         <v/>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:18</t>
+          <t>Generated: 2025-11-04 17:36</t>
         </is>
       </c>
     </row>
@@ -2218,9 +2218,21 @@
           <t>피아노</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>악기 판매 데이터 기반</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>전체 악기 중 피아노</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>판매 비중 25%</t>
+        </is>
+      </c>
       <c r="F2" t="n">
         <v>0.25</v>
       </c>
@@ -2246,9 +2258,21 @@
           <t>타겟</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>시장 조사</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>인구 통계</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>타겟 고객 산정</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>100000</v>
       </c>
@@ -2274,9 +2298,21 @@
           <t>전환율</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>업계 평균</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>유사 서비스</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>전환율 20%</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
@@ -2302,9 +2338,21 @@
           <t>상관</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>시장 상관성</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>유사 시장 비교</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>상관계수 0.3</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>0.3</v>
       </c>
@@ -2330,9 +2378,21 @@
           <t>적용</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>적용 가능성</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>시장 특성</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50% 적용</t>
+        </is>
+      </c>
       <c r="F6" t="n">
         <v>0.5</v>
       </c>
@@ -2358,9 +2418,21 @@
           <t>점유율</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>시장 분석</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>매출 데이터</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>점유율 40%</t>
+        </is>
+      </c>
       <c r="F7" t="n">
         <v>0.4</v>
       </c>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -35,9 +35,18 @@
     <definedName name="SAM_Method2">'Method_2_BottomUp'!$F$6</definedName>
     <definedName name="SAM_Method3">'Method_3_Proxy'!$B$7</definedName>
     <definedName name="SAM_Method4">'Method_4_CompetitorRevenue'!$B$7</definedName>
+    <definedName name="Conv_AvgSAM">'Convergence_Analysis'!$B$8</definedName>
+    <definedName name="Conv_StdDev">'Convergence_Analysis'!$B$9</definedName>
+    <definedName name="Conv_CV">'Convergence_Analysis'!$B$10</definedName>
+    <definedName name="Conv_MaxMin">'Convergence_Analysis'!$B$11</definedName>
+    <definedName name="Conv_Status">'Convergence_Analysis'!$B$12</definedName>
     <definedName name="AvgSAM_Best">'Scenarios'!$B$22</definedName>
     <definedName name="AvgSAM_Base">'Scenarios'!$C$22</definedName>
     <definedName name="AvgSAM_Worst">'Scenarios'!$D$22</definedName>
+    <definedName name="Val_TotalItems">'Validation_Log'!$B$15</definedName>
+    <definedName name="Val_Validated">'Validation_Log'!$B$16</definedName>
+    <definedName name="Val_Pending">'Validation_Log'!$B$17</definedName>
+    <definedName name="Val_CompletionRate">'Validation_Log'!$B$18</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -832,7 +841,7 @@
         </is>
       </c>
       <c r="B6" s="6">
-        <f>Convergence_Analysis!B8</f>
+        <f>Conv_AvgSAM</f>
         <v/>
       </c>
     </row>
@@ -934,7 +943,7 @@
         </is>
       </c>
       <c r="B16" s="10">
-        <f>Convergence_Analysis!B11</f>
+        <f>Conv_MaxMin</f>
         <v/>
       </c>
     </row>
@@ -945,7 +954,7 @@
         </is>
       </c>
       <c r="B17" s="11">
-        <f>Convergence_Analysis!B12</f>
+        <f>Conv_Status</f>
         <v/>
       </c>
     </row>
@@ -956,7 +965,7 @@
         </is>
       </c>
       <c r="B18" s="8">
-        <f>Convergence_Analysis!B9</f>
+        <f>Conv_StdDev</f>
         <v/>
       </c>
     </row>
@@ -967,7 +976,7 @@
         </is>
       </c>
       <c r="B19" s="9">
-        <f>Convergence_Analysis!B10</f>
+        <f>Conv_CV</f>
         <v/>
       </c>
     </row>
@@ -1048,7 +1057,7 @@
         </is>
       </c>
       <c r="B29" s="11">
-        <f>Validation_Log!B15</f>
+        <f>Val_TotalItems</f>
         <v/>
       </c>
     </row>
@@ -1059,7 +1068,7 @@
         </is>
       </c>
       <c r="B30" s="15">
-        <f>Validation_Log!B16</f>
+        <f>Val_Validated</f>
         <v/>
       </c>
     </row>
@@ -1070,7 +1079,7 @@
         </is>
       </c>
       <c r="B31" s="16">
-        <f>Validation_Log!B17</f>
+        <f>Val_Pending</f>
         <v/>
       </c>
     </row>
@@ -1081,7 +1090,7 @@
         </is>
       </c>
       <c r="B32" s="11">
-        <f>Validation_Log!B18</f>
+        <f>Val_CompletionRate</f>
         <v/>
       </c>
     </row>
@@ -1182,7 +1191,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:36</t>
+          <t>Generated: 2025-11-04 19:11</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2980,7 @@
         </is>
       </c>
       <c r="B10" s="9">
-        <f>B9/B8*100</f>
+        <f>Conv_StdDev/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2993,7 +3002,7 @@
         </is>
       </c>
       <c r="B12" s="27">
-        <f>IF(B11&lt;=1.3, "✅ 통과", "❌ 재검토 필요")</f>
+        <f>IF(Conv_MaxMin&lt;=1.3, "✅ 통과", "❌ 재검토 필요")</f>
         <v/>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -35,6 +35,10 @@
     <definedName name="SAM_Method2">'Method_2_BottomUp'!$F$6</definedName>
     <definedName name="SAM_Method3">'Method_3_Proxy'!$B$7</definedName>
     <definedName name="SAM_Method4">'Method_4_CompetitorRevenue'!$B$7</definedName>
+    <definedName name="Conv_SAM_Method1">'Convergence_Analysis'!$B$4</definedName>
+    <definedName name="Conv_SAM_Method2">'Convergence_Analysis'!$B$5</definedName>
+    <definedName name="Conv_SAM_Method3">'Convergence_Analysis'!$B$6</definedName>
+    <definedName name="Conv_SAM_Method4">'Convergence_Analysis'!$B$7</definedName>
     <definedName name="Conv_AvgSAM">'Convergence_Analysis'!$B$8</definedName>
     <definedName name="Conv_StdDev">'Convergence_Analysis'!$B$9</definedName>
     <definedName name="Conv_CV">'Convergence_Analysis'!$B$10</definedName>
@@ -1191,7 +1195,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 19:11</t>
+          <t>Generated: 2025-11-04 19:24</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2906,7 @@
         <v/>
       </c>
       <c r="C4" s="9">
-        <f>(B4-$B$8)/$B$8*100</f>
+        <f>(B4-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2917,7 +2921,7 @@
         <v/>
       </c>
       <c r="C5" s="9">
-        <f>(B5-$B$8)/$B$8*100</f>
+        <f>(B5-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2932,7 +2936,7 @@
         <v/>
       </c>
       <c r="C6" s="9">
-        <f>(B6-$B$8)/$B$8*100</f>
+        <f>(B6-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2947,7 +2951,7 @@
         <v/>
       </c>
       <c r="C7" s="9">
-        <f>(B7-$B$8)/$B$8*100</f>
+        <f>(B7-Conv_AvgSAM)/Conv_AvgSAM*100</f>
         <v/>
       </c>
     </row>
@@ -2958,7 +2962,7 @@
         </is>
       </c>
       <c r="B8" s="30">
-        <f>AVERAGE(B4:B7)</f>
+        <f>AVERAGE(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)</f>
         <v/>
       </c>
     </row>
@@ -2969,7 +2973,7 @@
         </is>
       </c>
       <c r="B9" s="8">
-        <f>STDEV(B4:B7)</f>
+        <f>STDEV(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)</f>
         <v/>
       </c>
     </row>
@@ -2991,7 +2995,7 @@
         </is>
       </c>
       <c r="B11" s="31">
-        <f>MAX(B4:B7)/MIN(B4:B7)</f>
+        <f>MAX(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)/MIN(Conv_SAM_Method1,Conv_SAM_Method2,Conv_SAM_Method3,Conv_SAM_Method4)</f>
         <v/>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -1195,7 +1195,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 19:24</t>
+          <t>Generated: 2025-11-04 19:26</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -44,6 +44,18 @@
     <definedName name="Conv_CV">'Convergence_Analysis'!$B$10</definedName>
     <definedName name="Conv_MaxMin">'Convergence_Analysis'!$B$11</definedName>
     <definedName name="Conv_Status">'Convergence_Analysis'!$B$12</definedName>
+    <definedName name="Scen_Method1_Best">'Scenarios'!$B$17</definedName>
+    <definedName name="Scen_Method1_Base">'Scenarios'!$C$17</definedName>
+    <definedName name="Scen_Method1_Worst">'Scenarios'!$D$17</definedName>
+    <definedName name="Scen_Method2_Best">'Scenarios'!$B$18</definedName>
+    <definedName name="Scen_Method2_Base">'Scenarios'!$C$18</definedName>
+    <definedName name="Scen_Method2_Worst">'Scenarios'!$D$18</definedName>
+    <definedName name="Scen_Method3_Best">'Scenarios'!$B$19</definedName>
+    <definedName name="Scen_Method3_Base">'Scenarios'!$C$19</definedName>
+    <definedName name="Scen_Method3_Worst">'Scenarios'!$D$19</definedName>
+    <definedName name="Scen_Method4_Best">'Scenarios'!$B$20</definedName>
+    <definedName name="Scen_Method4_Base">'Scenarios'!$C$20</definedName>
+    <definedName name="Scen_Method4_Worst">'Scenarios'!$D$20</definedName>
     <definedName name="AvgSAM_Best">'Scenarios'!$B$22</definedName>
     <definedName name="AvgSAM_Base">'Scenarios'!$C$22</definedName>
     <definedName name="AvgSAM_Worst">'Scenarios'!$D$22</definedName>
@@ -1195,7 +1207,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 19:26</t>
+          <t>Generated: 2025-11-04 19:31</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3378,7 @@
         </is>
       </c>
       <c r="B17" s="8">
-        <f>SAM</f>
+        <f>SAM*1.15</f>
         <v/>
       </c>
       <c r="C17" s="8">
@@ -3374,7 +3386,7 @@
         <v/>
       </c>
       <c r="D17" s="8">
-        <f>SAM</f>
+        <f>SAM*0.85</f>
         <v/>
       </c>
       <c r="E17" s="8">
@@ -3389,7 +3401,7 @@
         </is>
       </c>
       <c r="B18" s="8">
-        <f>SAM_Method2</f>
+        <f>SAM_Method2*1.15</f>
         <v/>
       </c>
       <c r="C18" s="8">
@@ -3397,7 +3409,7 @@
         <v/>
       </c>
       <c r="D18" s="8">
-        <f>SAM_Method2</f>
+        <f>SAM_Method2*0.85</f>
         <v/>
       </c>
       <c r="E18" s="8">
@@ -3412,7 +3424,7 @@
         </is>
       </c>
       <c r="B19" s="8">
-        <f>SAM_Method3</f>
+        <f>SAM_Method3*1.15</f>
         <v/>
       </c>
       <c r="C19" s="8">
@@ -3420,7 +3432,7 @@
         <v/>
       </c>
       <c r="D19" s="8">
-        <f>SAM_Method3</f>
+        <f>SAM_Method3*0.85</f>
         <v/>
       </c>
       <c r="E19" s="8">
@@ -3435,7 +3447,7 @@
         </is>
       </c>
       <c r="B20" s="8">
-        <f>SAM_Method4</f>
+        <f>SAM_Method4*1.15</f>
         <v/>
       </c>
       <c r="C20" s="8">
@@ -3443,7 +3455,7 @@
         <v/>
       </c>
       <c r="D20" s="8">
-        <f>SAM_Method4</f>
+        <f>SAM_Method4*0.85</f>
         <v/>
       </c>
       <c r="E20" s="8">
@@ -3458,15 +3470,15 @@
         </is>
       </c>
       <c r="B22" s="34">
-        <f>AVERAGE(B18:B21)</f>
+        <f>AVERAGE(Scen_Method1_Best,Scen_Method2_Best,Scen_Method3_Best,Scen_Method4_Best)</f>
         <v/>
       </c>
       <c r="C22" s="34">
-        <f>AVERAGE(C18:C21)</f>
+        <f>AVERAGE(Scen_Method1_Base,Scen_Method2_Base,Scen_Method3_Base,Scen_Method4_Base)</f>
         <v/>
       </c>
       <c r="D22" s="34">
-        <f>AVERAGE(D18:D21)</f>
+        <f>AVERAGE(Scen_Method1_Worst,Scen_Method2_Worst,Scen_Method3_Worst,Scen_Method4_Worst)</f>
         <v/>
       </c>
       <c r="E22" s="13">

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -32,8 +32,11 @@
     <definedName name="COMP1_REV">'Assumptions'!$D$12</definedName>
     <definedName name="COMP1_SHARE">'Assumptions'!$D$13</definedName>
     <definedName name="SAM">'Method_1_TopDown'!$C$6</definedName>
+    <definedName name="M2_Seg1_SAM">'Method_2_BottomUp'!$F$4</definedName>
     <definedName name="SAM_Method2">'Method_2_BottomUp'!$F$6</definedName>
     <definedName name="SAM_Method3">'Method_3_Proxy'!$B$7</definedName>
+    <definedName name="M4_Comp1_Rev">'Method_4_CompetitorRevenue'!$B$4</definedName>
+    <definedName name="M4_Comp1_Share">'Method_4_CompetitorRevenue'!$C$4</definedName>
     <definedName name="SAM_Method4">'Method_4_CompetitorRevenue'!$B$7</definedName>
     <definedName name="Conv_SAM_Method1">'Convergence_Analysis'!$B$4</definedName>
     <definedName name="Conv_SAM_Method2">'Convergence_Analysis'!$B$5</definedName>
@@ -1207,7 +1210,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 19:31</t>
+          <t>Generated: 2025-11-04 19:45</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2690,7 @@
         </is>
       </c>
       <c r="F6" s="26">
-        <f>SUM(F4:F4)</f>
+        <f>M2_Seg1_SAM</f>
         <v/>
       </c>
     </row>
@@ -2829,11 +2832,11 @@
         </is>
       </c>
       <c r="B5" s="27">
-        <f>SUM(B4:B4)</f>
+        <f>M4_Comp1_Rev</f>
         <v/>
       </c>
       <c r="C5" s="27">
-        <f>SUM(C4:C4)</f>
+        <f>M4_Comp1_Share</f>
         <v/>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_example_20251104.xlsx
@@ -497,18 +497,18 @@
     <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <t>출처: TAM_VALUE
-글로벌 악기</t>
+글로벌 악기 시장</t>
       </text>
     </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
-        <t>한국 15%
+        <t>한국 비중 15%
 출처: FILTER_KOREA</t>
       </text>
     </comment>
     <comment ref="C6" authorId="0" shapeId="0">
       <text>
-        <t>피아노 25%
+        <t>피아노만 25%
 출처: FILTER_PIANO</t>
       </text>
     </comment>
@@ -1210,7 +1210,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 19:45</t>
+          <t>Generated: 2025-11-04 20:13</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>글로벌 악기</t>
+          <t>글로벌 악기 시장</t>
         </is>
       </c>
       <c r="D2" s="20" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>한국</t>
+          <t>한국 비중</t>
         </is>
       </c>
       <c r="D3" s="20" t="n">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노</t>
+          <t>피아노 비중</t>
         </is>
       </c>
       <c r="D4" s="20" t="n">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>타겟</t>
+          <t>타겟 고객 수</t>
         </is>
       </c>
       <c r="D5" s="20" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>전환율</t>
+          <t>구독 전환율</t>
         </is>
       </c>
       <c r="D6" s="20" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>구독료</t>
+          <t>월 구독료</t>
         </is>
       </c>
       <c r="D7" s="20" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>빈도</t>
+          <t>연간 결제</t>
         </is>
       </c>
       <c r="D8" s="20" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>유사시장</t>
+          <t>유사 시장 규모</t>
         </is>
       </c>
       <c r="D9" s="20" t="n">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>상관</t>
+          <t>상관계수</t>
         </is>
       </c>
       <c r="D10" s="20" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>적용</t>
+          <t>적용 비율</t>
         </is>
       </c>
       <c r="D11" s="20" t="n">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>매출</t>
+          <t>경쟁사A 매출</t>
         </is>
       </c>
       <c r="D12" s="20" t="n">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>점유율</t>
+          <t>시장 점유율</t>
         </is>
       </c>
       <c r="D13" s="20" t="n">
@@ -2243,24 +2243,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>피아노</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>악기 판매 데이터 기반</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>전체 악기 중 피아노</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>판매 비중 25%</t>
-        </is>
-      </c>
+          <t>피아노 비중</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0.25</v>
       </c>
@@ -2283,24 +2271,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>타겟</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>시장 조사</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>인구 통계</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>타겟 고객 산정</t>
-        </is>
-      </c>
+          <t>타겟 고객 수</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>100000</v>
       </c>
@@ -2323,24 +2299,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>전환율</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>업계 평균</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>유사 서비스</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>전환율 20%</t>
-        </is>
-      </c>
+          <t>구독 전환율</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
@@ -2363,24 +2327,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>상관</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>시장 상관성</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>유사 시장 비교</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>상관계수 0.3</t>
-        </is>
-      </c>
+          <t>상관계수</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0.3</v>
       </c>
@@ -2403,24 +2355,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>적용</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>적용 가능성</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>시장 특성</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>50% 적용</t>
-        </is>
-      </c>
+          <t>적용 비율</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0.5</v>
       </c>
@@ -2443,24 +2383,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>점유율</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>시장 분석</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>매출 데이터</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>점유율 40%</t>
-        </is>
-      </c>
+          <t>시장 점유율</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>0.4</v>
       </c>
@@ -2527,17 +2455,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>글로벌 악기</t>
+          <t>글로벌 악기 시장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한국 15%</t>
+          <t>한국 비중 15%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노 25%</t>
+          <t>피아노만 25%</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2587,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>개인</t>
+          <t>개인 구독</t>
         </is>
       </c>
       <c r="B4">
